--- a/2017年度12工作報告.xlsx
+++ b/2017年度12工作報告.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="375" windowWidth="19155" windowHeight="7500"/>
+    <workbookView xWindow="840" yWindow="420" windowWidth="19155" windowHeight="7455"/>
   </bookViews>
   <sheets>
     <sheet name="姓名" sheetId="1" r:id="rId1"/>
@@ -29,56 +29,73 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>YYYY年度完成工作項目_姓名</t>
+    <t>預算暨費用系統專案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.預算系統與費用系統功能整併
+2.整併後的功能流程測試與優化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>優化預算檢核</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>國外出差旅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整預算檢核金額計算條件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.新增國外工作日報表
+2.新增國外差旅費申報表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.原先使用者的工作日報表填寫方式為下載文件WORD檔後自行填寫內容，現已修改為直接在系統中輸入明細並且可以直接產生報表後印出。
+2.國外差旅費申報表可供主管簽核與方便了解國外差旅費用的各項明細。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便使用者在申請各項費用時可以了解剩餘預算為多少，不需另外查找。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.降低使用者切換不同系統使用上的不便利。
+2.減少使用者切換不同系統的操作時間。
+3.流程優化可提升使用者工作效率。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>預算實支表單</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拋檔至中介系統讓數資部的同仁們接收相關資料，代各單位填寫完成後，再接資料回費用系統</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>與數資部合作此需求單是為了方便各單位的同仁們到行政表單系統填寫預算異常說明，行政表單系統的表單也便於長官簽核，減少紙本簽核的浪費。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫檢印花稅作業</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因應政府政策修改印刷稅額計算方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改印花稅計算方式，減少使用者作業時間，提升效率。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106年度完成工作項目_涂宇欣</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RE201603570_預算暨費用系統_共用功能與模組整合  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能整併與整體功能測試</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把兩項系統整併後</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RE201700314</t>
-  </si>
-  <si>
-    <t>理賠調查員各項調查費用匯至個人薪資帳戶</t>
-  </si>
-  <si>
-    <t>RE201603570</t>
-  </si>
-  <si>
-    <t>預算暨費用系統_共用功能與模組整合</t>
-  </si>
-  <si>
-    <t>RE201701547</t>
-  </si>
-  <si>
-    <t>費用系統預算優化-第二階段</t>
-  </si>
-  <si>
-    <t>RE201701039</t>
-  </si>
-  <si>
-    <t>國外出差系統優化作業第二階段</t>
-  </si>
-  <si>
-    <t>RE201702775</t>
-  </si>
-  <si>
-    <t>預算實支追蹤表單_費用系統</t>
-  </si>
-  <si>
-    <t>RE201702268</t>
-  </si>
-  <si>
-    <t>新增醫檢轉入資料欄位</t>
   </si>
 </sst>
 </file>
@@ -176,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -192,14 +209,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +525,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -516,11 +536,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -535,85 +555,76 @@
     </row>
     <row r="3" spans="1:3" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>42769</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>42874</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>42916</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>42986</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>43014</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="7" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>43070</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
